--- a/SGML Model.xlsx
+++ b/SGML Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5EAAF8-93E6-534C-B45E-781239AC5431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E0BD5-3CCB-D448-BE6C-EB5B17079192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{07814A4F-54B7-0E40-A881-6DC2A584375E}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">Guaranteed Quantity </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C8746B-FC2D-0E42-848F-9614AEF62425}">
-  <dimension ref="A1"/>
+  <dimension ref="A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>